--- a/tabular/eve/hamaparvovirinae/epv-ichthama-side-data.xlsx
+++ b/tabular/eve/hamaparvovirinae/epv-ichthama-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/hamaparvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A407FE-21D6-7544-BCE1-C34EB2FE2C41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6FCD35-A4F4-464C-BFC2-C84605692056}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>host_species</t>
   </si>
@@ -40,9 +40,6 @@
     <t>host_genus</t>
   </si>
   <si>
-    <t>organism</t>
-  </si>
-  <si>
     <t>target_datatype</t>
   </si>
   <si>
@@ -236,6 +233,42 @@
   </si>
   <si>
     <t>ichthama.2-serpentes-UR</t>
+  </si>
+  <si>
+    <t>Hippocampus_comes</t>
+  </si>
+  <si>
+    <t>QL1_v1</t>
+  </si>
+  <si>
+    <t>GCA_001891065.1_H_comes_QL1_v1_genomic.fa</t>
+  </si>
+  <si>
+    <t>KV879908.1</t>
+  </si>
+  <si>
+    <t>ichthama.1-Hippocampus_comes</t>
+  </si>
+  <si>
+    <t>ichthama.1-hippocampus</t>
+  </si>
+  <si>
+    <t>ichthama.1</t>
+  </si>
+  <si>
+    <t>Actinopterygii</t>
+  </si>
+  <si>
+    <t>Syngnathiformes</t>
+  </si>
+  <si>
+    <t>Syngnathidae</t>
+  </si>
+  <si>
+    <t>Hippocampus</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -737,7 +770,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -750,6 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1105,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S6" sqref="A1:AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,21 +1153,21 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="30" max="30" width="17.83203125" customWidth="1"/>
+    <col min="29" max="29" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1210,548 +1244,527 @@
       <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
+      <c r="F2" t="s">
+        <v>78</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>72152472</v>
-      </c>
-      <c r="R2" s="4">
-        <v>72153041</v>
-      </c>
-      <c r="S2" s="4">
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2">
+        <v>101882</v>
+      </c>
+      <c r="Q2">
+        <v>102151</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="T2" s="4">
-        <v>190</v>
-      </c>
-      <c r="U2" s="4">
-        <v>1</v>
-      </c>
-      <c r="V2" s="4">
-        <v>570</v>
-      </c>
-      <c r="W2" s="4">
-        <v>190</v>
-      </c>
-      <c r="X2" s="4">
-        <v>310</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>83.683999999999997</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>2.57</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>103</v>
-      </c>
-      <c r="AB2" s="4">
+      <c r="T2">
+        <v>84</v>
+      </c>
+      <c r="U2">
+        <v>16</v>
+      </c>
+      <c r="V2">
+        <v>267</v>
+      </c>
+      <c r="W2">
+        <v>84</v>
+      </c>
+      <c r="X2">
+        <v>180</v>
+      </c>
+      <c r="Y2">
+        <v>100</v>
+      </c>
+      <c r="Z2">
+        <v>1.32</v>
+      </c>
+      <c r="AA2">
+        <v>61</v>
+      </c>
+      <c r="AB2">
         <v>0</v>
       </c>
-      <c r="AC2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>570</v>
+      <c r="AC2">
+        <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="P3" s="4">
+        <v>72152472</v>
       </c>
       <c r="Q3" s="4">
-        <v>1937</v>
+        <v>72153041</v>
       </c>
       <c r="R3" s="4">
-        <v>2821</v>
+        <v>1</v>
       </c>
       <c r="S3" s="4">
-        <v>545</v>
+        <v>190</v>
       </c>
       <c r="T3" s="4">
-        <v>837</v>
+        <v>1</v>
       </c>
       <c r="U3" s="4">
-        <v>7</v>
+        <v>570</v>
       </c>
       <c r="V3" s="4">
-        <v>885</v>
+        <v>190</v>
       </c>
       <c r="W3" s="4">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="X3" s="4">
-        <v>602</v>
+        <v>83.683999999999997</v>
       </c>
       <c r="Y3" s="4">
-        <v>96.927999999999997</v>
+        <v>2.57</v>
       </c>
       <c r="Z3" s="4">
+        <v>103</v>
+      </c>
+      <c r="AA3" s="4">
         <v>0</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>1</v>
       </c>
       <c r="AB3" s="4">
         <v>0</v>
       </c>
       <c r="AC3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>885</v>
+        <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="I4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="4">
+        <v>39</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1937</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>2821</v>
+      </c>
+      <c r="R4" s="4">
+        <v>545</v>
+      </c>
+      <c r="S4" s="4">
+        <v>837</v>
+      </c>
+      <c r="T4" s="4">
+        <v>7</v>
+      </c>
+      <c r="U4" s="4">
+        <v>885</v>
+      </c>
+      <c r="V4" s="4">
+        <v>293</v>
+      </c>
+      <c r="W4" s="4">
+        <v>602</v>
+      </c>
+      <c r="X4" s="4">
+        <v>96.927999999999997</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
         <v>1</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1978</v>
-      </c>
-      <c r="R4" s="4">
-        <v>4482</v>
-      </c>
-      <c r="S4" s="4">
-        <v>1</v>
-      </c>
-      <c r="T4" s="4">
-        <v>837</v>
-      </c>
-      <c r="U4" s="4">
-        <v>1</v>
-      </c>
-      <c r="V4" s="4">
-        <v>2505</v>
-      </c>
-      <c r="W4" s="4">
-        <v>838</v>
-      </c>
-      <c r="X4" s="4">
-        <v>1218</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>86.158000000000001</v>
-      </c>
-      <c r="Z4" s="4">
+      <c r="AA4" s="4">
         <v>0</v>
       </c>
-      <c r="AA4" s="4">
-        <v>1</v>
-      </c>
       <c r="AB4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>2505</v>
+        <v>885</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="4">
-        <v>6</v>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1978</v>
       </c>
       <c r="Q5" s="4">
-        <v>320102</v>
+        <v>4482</v>
       </c>
       <c r="R5" s="4">
-        <v>320644</v>
+        <v>1</v>
       </c>
       <c r="S5" s="4">
+        <v>837</v>
+      </c>
+      <c r="T5" s="4">
         <v>1</v>
       </c>
-      <c r="T5" s="4">
-        <v>178</v>
-      </c>
       <c r="U5" s="4">
+        <v>2505</v>
+      </c>
+      <c r="V5" s="4">
+        <v>838</v>
+      </c>
+      <c r="W5" s="4">
+        <v>1218</v>
+      </c>
+      <c r="X5" s="4">
+        <v>86.158000000000001</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
         <v>1</v>
       </c>
-      <c r="V5" s="4">
-        <v>534</v>
-      </c>
-      <c r="W5" s="4">
-        <v>178</v>
-      </c>
-      <c r="X5" s="4">
-        <v>293</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>84.831000000000003</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>4.79</v>
-      </c>
       <c r="AA5" s="4">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>543</v>
+        <v>2505</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="L6" s="4">
+        <v>6</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="P6" s="4">
+        <v>320102</v>
       </c>
       <c r="Q6" s="4">
-        <v>68225</v>
+        <v>320644</v>
       </c>
       <c r="R6" s="4">
-        <v>68530</v>
+        <v>1</v>
       </c>
       <c r="S6" s="4">
-        <v>545</v>
+        <v>178</v>
       </c>
       <c r="T6" s="4">
-        <v>643</v>
+        <v>1</v>
       </c>
       <c r="U6" s="4">
-        <v>7</v>
+        <v>534</v>
       </c>
       <c r="V6" s="4">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="W6" s="4">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="X6" s="4">
-        <v>165</v>
+        <v>84.831000000000003</v>
       </c>
       <c r="Y6" s="4">
-        <v>80</v>
+        <v>4.79</v>
       </c>
       <c r="Z6" s="4">
-        <v>8.8699999999999992</v>
+        <v>97</v>
       </c>
       <c r="AA6" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>306</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="P7" s="4">
+        <v>68225</v>
       </c>
       <c r="Q7" s="4">
-        <v>15274</v>
+        <v>68530</v>
       </c>
       <c r="R7" s="4">
-        <v>17836</v>
+        <v>545</v>
       </c>
       <c r="S7" s="4">
-        <v>1</v>
+        <v>643</v>
       </c>
       <c r="T7" s="4">
-        <v>545</v>
+        <v>7</v>
       </c>
       <c r="U7" s="4">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="V7" s="4">
-        <v>1635</v>
+        <v>100</v>
       </c>
       <c r="W7" s="4">
-        <v>545</v>
+        <v>165</v>
       </c>
       <c r="X7" s="4">
-        <v>774</v>
+        <v>80</v>
       </c>
       <c r="Y7" s="4">
-        <v>91.927000000000007</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="Z7" s="4">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AA7" s="4">
         <v>1</v>
@@ -1760,13 +1773,103 @@
         <v>0</v>
       </c>
       <c r="AC7" s="4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="4">
+        <v>15274</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>17836</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
+        <v>545</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1635</v>
+      </c>
+      <c r="V8" s="4">
+        <v>545</v>
+      </c>
+      <c r="W8" s="4">
+        <v>774</v>
+      </c>
+      <c r="X8" s="4">
+        <v>91.927000000000007</v>
+      </c>
+      <c r="Y8" s="4">
         <v>0</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="Z8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
         <v>2563</v>
       </c>
+      <c r="AG8" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC8">
+    <sortCondition ref="C2:C8"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tabular/eve/hamaparvovirinae/epv-ichthama-side-data.xlsx
+++ b/tabular/eve/hamaparvovirinae/epv-ichthama-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/hamaparvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6FCD35-A4F4-464C-BFC2-C84605692056}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D61ACF-F085-474E-8EA5-01CF2ECAC8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S6" sqref="A1:AC8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,6 +1153,7 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
     <col min="29" max="29" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
